--- a/xlsx/1.xlsx
+++ b/xlsx/1.xlsx
@@ -26,14 +26,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="40">
   <si>
     <t>int</t>
   </si>
   <si>
-    <t>IntSlice</t>
-  </si>
-  <si>
     <t>显示顺序1</t>
   </si>
   <si>
@@ -101,15 +98,6 @@
   </si>
   <si>
     <t>c</t>
-  </si>
-  <si>
-    <t>40000,20</t>
-  </si>
-  <si>
-    <t>40001,20</t>
-  </si>
-  <si>
-    <t>40002,20</t>
   </si>
   <si>
     <t>rap</t>
@@ -232,6 +220,26 @@
     </r>
     <phoneticPr fontId="27" type="noConversion"/>
   </si>
+  <si>
+    <t>all</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>[40001,20]</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>[40002,20]</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>[[40000,20],[200,1]]</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>IntSlice2</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -421,24 +429,12 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="27">
+  <fills count="25">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF00B050"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.39994506668294322"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -699,123 +695,129 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -830,16 +832,10 @@
     <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -872,13 +868,13 @@
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0">
@@ -933,10 +929,10 @@
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -945,7 +941,7 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -963,6 +959,12 @@
     <xf numFmtId="0" fontId="25" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -975,10 +977,10 @@
     <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -987,37 +989,28 @@
     <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="21" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="21" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="23" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="23" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="21" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="21" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1031,9 +1024,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1043,19 +1033,19 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="5" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1576,282 +1566,285 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K9"/>
+  <dimension ref="A1:K11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="12.75" style="1" customWidth="1"/>
-    <col min="2" max="2" width="9" style="1"/>
-    <col min="3" max="3" width="11.5" style="1" customWidth="1"/>
-    <col min="4" max="4" width="20.375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="14.875" style="1" customWidth="1"/>
-    <col min="6" max="6" width="17.125" style="1" customWidth="1"/>
-    <col min="7" max="8" width="13.875" style="1" customWidth="1"/>
-    <col min="9" max="10" width="31.625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="28.375" style="1" customWidth="1"/>
-    <col min="12" max="16384" width="9" style="1"/>
+    <col min="1" max="1" width="12.75" style="8" customWidth="1"/>
+    <col min="2" max="2" width="14.125" style="8" customWidth="1"/>
+    <col min="3" max="3" width="11.5" style="8" customWidth="1"/>
+    <col min="4" max="4" width="20.375" style="8" customWidth="1"/>
+    <col min="5" max="5" width="14.875" style="8" customWidth="1"/>
+    <col min="6" max="6" width="17.125" style="8" customWidth="1"/>
+    <col min="7" max="8" width="13.875" style="8" customWidth="1"/>
+    <col min="9" max="10" width="31.625" style="8" customWidth="1"/>
+    <col min="11" max="11" width="28.375" style="8" customWidth="1"/>
+    <col min="12" max="16384" width="9" style="8"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
-      <c r="A1" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>28</v>
+      <c r="A1" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:11">
-      <c r="A2" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="B2" s="14" t="s">
-        <v>38</v>
+      <c r="A2" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>34</v>
       </c>
     </row>
-    <row r="3" spans="1:11">
-      <c r="A3" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="E3" s="1" t="s">
+    <row r="4" spans="1:11">
+      <c r="A4" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="B4" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="F3" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="K3" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" ht="27">
-      <c r="A4" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="B4" s="4" t="s">
+      <c r="C4" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="D4" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="E4" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="E4" s="6" t="s">
+      <c r="F4" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="F4" s="1" t="s">
+      <c r="G4" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="G4" s="1" t="s">
+      <c r="H4" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="H4" s="1" t="s">
+      <c r="I4" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="I4" s="12" t="s">
+      <c r="J4" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="J4" s="12" t="s">
+      <c r="K4" s="8" t="s">
         <v>10</v>
-      </c>
-      <c r="K4" s="13" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:11">
-      <c r="A5" s="14" t="s">
-        <v>31</v>
-      </c>
-      <c r="B5" s="7" t="s">
+      <c r="A5" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="7" t="s">
+      <c r="D5" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="D5" s="8" t="s">
+      <c r="E5" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="E5" s="6" t="s">
+      <c r="F5" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="F5" s="1" t="s">
+      <c r="G5" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="G5" s="1" t="s">
+      <c r="H5" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="H5" s="1" t="s">
+      <c r="I5" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="I5" s="12" t="s">
+      <c r="J5" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="J5" s="12" t="s">
+      <c r="K5" s="8" t="s">
         <v>20</v>
-      </c>
-      <c r="K5" s="13" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="6" spans="1:11">
-      <c r="A6" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="B6" s="9" t="s">
+      <c r="A6" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="H6" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="I6" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="J6" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="C6" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="D6" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="E6" s="9"/>
-      <c r="F6" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="G6" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="H6" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="I6" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="J6" s="12" t="s">
+      <c r="K6" s="8" t="s">
         <v>23</v>
-      </c>
-      <c r="K6" s="13" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="7" spans="1:11">
-      <c r="A7" s="14" t="s">
-        <v>33</v>
-      </c>
-      <c r="B7" s="1">
-        <v>1</v>
-      </c>
-      <c r="C7" s="1">
-        <v>50100</v>
-      </c>
-      <c r="D7" s="1">
-        <v>1</v>
-      </c>
-      <c r="E7" s="10" t="s">
+      <c r="A7" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="F7" s="1">
-        <v>1002</v>
-      </c>
-      <c r="G7" s="1">
-        <v>50</v>
-      </c>
-      <c r="H7" s="1">
-        <v>40</v>
-      </c>
-      <c r="I7" s="12">
-        <v>90</v>
-      </c>
-      <c r="J7" s="12">
-        <v>50</v>
-      </c>
-      <c r="K7" s="13">
-        <v>50</v>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E7" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="F7" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="G7" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="H7" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="I7" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="J7" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="K7" s="8" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:11">
-      <c r="A8" s="14" t="s">
-        <v>34</v>
-      </c>
-      <c r="B8" s="1">
-        <v>0</v>
-      </c>
-      <c r="C8" s="1">
-        <v>50101</v>
-      </c>
-      <c r="D8" s="1">
-        <v>2</v>
-      </c>
-      <c r="E8" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="F8" s="1">
-        <v>1001</v>
-      </c>
-      <c r="G8" s="1">
-        <v>50</v>
-      </c>
-      <c r="H8" s="1">
-        <v>40</v>
-      </c>
-      <c r="I8" s="12">
-        <v>75</v>
-      </c>
-      <c r="J8" s="12">
-        <v>100</v>
-      </c>
-      <c r="K8" s="13">
-        <v>100</v>
-      </c>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="2"/>
     </row>
     <row r="9" spans="1:11">
-      <c r="A9" s="14" t="s">
-        <v>35</v>
-      </c>
-      <c r="B9" s="1">
+      <c r="A9" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="B9" s="8">
+        <v>1</v>
+      </c>
+      <c r="C9" s="8">
+        <v>50100</v>
+      </c>
+      <c r="D9" s="8">
+        <v>1</v>
+      </c>
+      <c r="E9" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="F9" s="8">
+        <v>1002</v>
+      </c>
+      <c r="G9" s="8">
+        <v>50</v>
+      </c>
+      <c r="H9" s="8">
+        <v>40</v>
+      </c>
+      <c r="I9" s="8">
+        <v>90</v>
+      </c>
+      <c r="J9" s="8">
+        <v>50</v>
+      </c>
+      <c r="K9" s="8">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
+      <c r="A10" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="B10" s="8">
+        <v>0</v>
+      </c>
+      <c r="C10" s="8">
+        <v>50101</v>
+      </c>
+      <c r="D10" s="8">
         <v>2</v>
       </c>
-      <c r="C9" s="1">
+      <c r="E10" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="F10" s="8">
+        <v>1001</v>
+      </c>
+      <c r="G10" s="8">
+        <v>50</v>
+      </c>
+      <c r="H10" s="8">
+        <v>40</v>
+      </c>
+      <c r="I10" s="8">
+        <v>75</v>
+      </c>
+      <c r="J10" s="8">
+        <v>100</v>
+      </c>
+      <c r="K10" s="8">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
+      <c r="A11" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="B11" s="8">
+        <v>2</v>
+      </c>
+      <c r="C11" s="8">
         <v>50102</v>
       </c>
-      <c r="D9" s="1">
+      <c r="D11" s="8">
         <v>3</v>
       </c>
-      <c r="E9" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="F9" s="1">
+      <c r="E11" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="F11" s="8">
         <v>1003</v>
       </c>
-      <c r="G9" s="1">
+      <c r="G11" s="8">
         <v>50</v>
       </c>
-      <c r="H9" s="1">
+      <c r="H11" s="8">
         <v>40</v>
       </c>
-      <c r="I9" s="12">
+      <c r="I11" s="8">
         <v>95</v>
       </c>
-      <c r="J9" s="12">
+      <c r="J11" s="8">
         <v>75</v>
       </c>
-      <c r="K9" s="13">
+      <c r="K11" s="8">
         <v>100</v>
       </c>
     </row>

--- a/xlsx/1.xlsx
+++ b/xlsx/1.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\go-script\xlsx\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\common_cache_data\go_land\234_file\xlsx-go-build\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="40">
   <si>
     <t>int</t>
   </si>
@@ -1566,10 +1566,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K11"/>
+  <dimension ref="A1:K12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+      <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1848,6 +1848,41 @@
         <v>100</v>
       </c>
     </row>
+    <row r="12" spans="1:11">
+      <c r="A12" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="B12" s="8">
+        <v>2</v>
+      </c>
+      <c r="C12" s="8">
+        <v>50102</v>
+      </c>
+      <c r="D12" s="8">
+        <v>3</v>
+      </c>
+      <c r="E12" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="F12" s="8">
+        <v>1003</v>
+      </c>
+      <c r="G12" s="8">
+        <v>50</v>
+      </c>
+      <c r="H12" s="8">
+        <v>40</v>
+      </c>
+      <c r="I12" s="8">
+        <v>95</v>
+      </c>
+      <c r="J12" s="8">
+        <v>75</v>
+      </c>
+      <c r="K12" s="8">
+        <v>100</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="27" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/xlsx/1.xlsx
+++ b/xlsx/1.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="41">
   <si>
     <t>int</t>
   </si>
@@ -154,59 +154,6 @@
   </si>
   <si>
     <r>
-      <t>V</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>ALUE</t>
-    </r>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>V</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>ALUE</t>
-    </r>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>V</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>ALUE</t>
-    </r>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <t>STRUCTNAME</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <t>FILENAME</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <r>
       <t>d</t>
     </r>
     <r>
@@ -233,11 +180,35 @@
     <phoneticPr fontId="27" type="noConversion"/>
   </si>
   <si>
-    <t>[[40000,20],[200,1]]</t>
+    <t>END_NAME</t>
     <phoneticPr fontId="27" type="noConversion"/>
   </si>
   <si>
-    <t>IntSlice2</t>
+    <t>END_FILE</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>rap</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>FRO_NAME</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>FRO_FILE</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>data_rap.ts</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>[40000,20]</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>IntSlice</t>
     <phoneticPr fontId="27" type="noConversion"/>
   </si>
 </sst>
@@ -1566,10 +1537,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K12"/>
+  <dimension ref="A1:K14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1588,7 +1559,7 @@
   <sheetData>
     <row r="1" spans="1:11">
       <c r="A1" s="8" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B1" s="8" t="s">
         <v>24</v>
@@ -1596,241 +1567,185 @@
     </row>
     <row r="2" spans="1:11">
       <c r="A2" s="8" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>34</v>
+        <v>29</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
+      <c r="A3" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="4" spans="1:11">
-      <c r="A4" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="D4" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="E4" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="F4" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="G4" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="H4" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="I4" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="J4" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="K4" s="8" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11">
-      <c r="A5" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D5" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="E5" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="F5" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="G5" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="H5" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="I5" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="J5" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="K5" s="8" t="s">
-        <v>20</v>
+      <c r="A4" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="6" spans="1:11">
       <c r="A6" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="B6" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="C6" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="D6" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="E6" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="H6" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="I6" s="7" t="s">
-        <v>21</v>
+        <v>26</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="E6" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="F6" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="G6" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="H6" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="I6" s="8" t="s">
+        <v>8</v>
       </c>
       <c r="J6" s="8" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="K6" s="8" t="s">
-        <v>23</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:11">
-      <c r="A7" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
-      <c r="D7" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="E7" s="8" t="s">
-        <v>39</v>
+      <c r="A7" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E7" s="10" t="s">
+        <v>14</v>
       </c>
       <c r="F7" s="8" t="s">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="G7" s="8" t="s">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="H7" s="8" t="s">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="I7" s="8" t="s">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="J7" s="8" t="s">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="K7" s="8" t="s">
-        <v>0</v>
+        <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:11">
-      <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
-      <c r="D8" s="2"/>
+      <c r="A8" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="H8" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="I8" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="J8" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="K8" s="8" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="9" spans="1:11">
-      <c r="A9" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="B9" s="8">
-        <v>1</v>
-      </c>
-      <c r="C9" s="8">
-        <v>50100</v>
-      </c>
-      <c r="D9" s="8">
-        <v>1</v>
-      </c>
-      <c r="E9" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="F9" s="8">
-        <v>1002</v>
-      </c>
-      <c r="G9" s="8">
-        <v>50</v>
-      </c>
-      <c r="H9" s="8">
+      <c r="A9" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E9" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="I9" s="8">
-        <v>90</v>
-      </c>
-      <c r="J9" s="8">
-        <v>50</v>
-      </c>
-      <c r="K9" s="8">
-        <v>50</v>
+      <c r="F9" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="G9" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="H9" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="I9" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="J9" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="K9" s="8" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:11">
-      <c r="A10" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="B10" s="8">
-        <v>0</v>
-      </c>
-      <c r="C10" s="8">
-        <v>50101</v>
-      </c>
-      <c r="D10" s="8">
-        <v>2</v>
-      </c>
-      <c r="E10" s="12" t="s">
-        <v>36</v>
-      </c>
-      <c r="F10" s="8">
-        <v>1001</v>
-      </c>
-      <c r="G10" s="8">
-        <v>50</v>
-      </c>
-      <c r="H10" s="8">
-        <v>40</v>
-      </c>
-      <c r="I10" s="8">
-        <v>75</v>
-      </c>
-      <c r="J10" s="8">
-        <v>100</v>
-      </c>
-      <c r="K10" s="8">
-        <v>100</v>
-      </c>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="2"/>
     </row>
     <row r="11" spans="1:11">
-      <c r="A11" s="9" t="s">
-        <v>31</v>
-      </c>
+      <c r="A11" s="9"/>
       <c r="B11" s="8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C11" s="8">
-        <v>50102</v>
+        <v>50100</v>
       </c>
       <c r="D11" s="8">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E11" s="11" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="F11" s="8">
-        <v>1003</v>
+        <v>1002</v>
       </c>
       <c r="G11" s="8">
         <v>50</v>
@@ -1839,33 +1754,31 @@
         <v>40</v>
       </c>
       <c r="I11" s="8">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="J11" s="8">
-        <v>75</v>
+        <v>50</v>
       </c>
       <c r="K11" s="8">
-        <v>100</v>
+        <v>50</v>
       </c>
     </row>
     <row r="12" spans="1:11">
-      <c r="A12" s="9" t="s">
-        <v>29</v>
-      </c>
+      <c r="A12" s="9"/>
       <c r="B12" s="8">
+        <v>0</v>
+      </c>
+      <c r="C12" s="8">
+        <v>50101</v>
+      </c>
+      <c r="D12" s="8">
         <v>2</v>
       </c>
-      <c r="C12" s="8">
-        <v>50102</v>
-      </c>
-      <c r="D12" s="8">
-        <v>3</v>
-      </c>
-      <c r="E12" s="11" t="s">
-        <v>37</v>
+      <c r="E12" s="12" t="s">
+        <v>31</v>
       </c>
       <c r="F12" s="8">
-        <v>1003</v>
+        <v>1001</v>
       </c>
       <c r="G12" s="8">
         <v>50</v>
@@ -1874,12 +1787,78 @@
         <v>40</v>
       </c>
       <c r="I12" s="8">
+        <v>75</v>
+      </c>
+      <c r="J12" s="8">
+        <v>100</v>
+      </c>
+      <c r="K12" s="8">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11">
+      <c r="A13" s="9"/>
+      <c r="B13" s="8">
+        <v>2</v>
+      </c>
+      <c r="C13" s="8">
+        <v>50102</v>
+      </c>
+      <c r="D13" s="8">
+        <v>3</v>
+      </c>
+      <c r="E13" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="F13" s="8">
+        <v>1003</v>
+      </c>
+      <c r="G13" s="8">
+        <v>50</v>
+      </c>
+      <c r="H13" s="8">
+        <v>40</v>
+      </c>
+      <c r="I13" s="8">
         <v>95</v>
       </c>
-      <c r="J12" s="8">
+      <c r="J13" s="8">
         <v>75</v>
       </c>
-      <c r="K12" s="8">
+      <c r="K13" s="8">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11">
+      <c r="A14" s="9"/>
+      <c r="B14" s="8">
+        <v>2</v>
+      </c>
+      <c r="C14" s="8">
+        <v>50102</v>
+      </c>
+      <c r="D14" s="8">
+        <v>3</v>
+      </c>
+      <c r="E14" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="F14" s="8">
+        <v>1003</v>
+      </c>
+      <c r="G14" s="8">
+        <v>50</v>
+      </c>
+      <c r="H14" s="8">
+        <v>40</v>
+      </c>
+      <c r="I14" s="8">
+        <v>95</v>
+      </c>
+      <c r="J14" s="8">
+        <v>75</v>
+      </c>
+      <c r="K14" s="8">
         <v>100</v>
       </c>
     </row>
